--- a/ADaM coding/ADaM-like/ADMH.xlsx
+++ b/ADaM coding/ADaM-like/ADMH.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">STUDYID</t>
   </si>
   <si>
-    <t xml:space="preserve">SUBJID</t>
-  </si>
-  <si>
     <t xml:space="preserve">USUBJID</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t xml:space="preserve">XXXX1-PX-0X</t>
   </si>
   <si>
-    <t xml:space="preserve">001049</t>
-  </si>
-  <si>
     <t xml:space="preserve">XXXX1-PX-0X-001049</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">001053</t>
-  </si>
-  <si>
     <t xml:space="preserve">XXXX1-PX-0X-001053</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
   </si>
   <si>
     <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001054</t>
   </si>
   <si>
     <t xml:space="preserve">XXXX1-PX-0X-001054</t>
@@ -545,270 +533,256 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="L2"/>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
       <c r="Q2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" t="s">
-        <v>38</v>
-      </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4"/>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
         <v>2</v>
       </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="J5"/>
       <c r="K5"/>
-      <c r="L5"/>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
       <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="N5"/>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
         <v>3</v>
       </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="J6"/>
       <c r="K6"/>
-      <c r="L6"/>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
       <c r="M6" t="s">
         <v>26</v>
       </c>
-      <c r="N6"/>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ADaM coding/ADaM-like/ADMH.xlsx
+++ b/ADaM coding/ADaM-like/ADMH.xlsx
@@ -26,12 +26,12 @@
     <t xml:space="preserve">TRTPN</t>
   </si>
   <si>
+    <t xml:space="preserve">MHSEQ</t>
+  </si>
+  <si>
     <t xml:space="preserve">MHCAT</t>
   </si>
   <si>
-    <t xml:space="preserve">MHSEQ</t>
-  </si>
-  <si>
     <t xml:space="preserve">MHTERM</t>
   </si>
   <si>
@@ -44,24 +44,24 @@
     <t xml:space="preserve">MHSTDTC</t>
   </si>
   <si>
+    <t xml:space="preserve">ASTDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASTDTF</t>
+  </si>
+  <si>
     <t xml:space="preserve">MHENDTC</t>
   </si>
   <si>
+    <t xml:space="preserve">AENDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AENDTF</t>
+  </si>
+  <si>
     <t xml:space="preserve">MHENRTPT</t>
   </si>
   <si>
-    <t xml:space="preserve">ASTDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASTDTF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AENDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AENDTF</t>
-  </si>
-  <si>
     <t xml:space="preserve">MHENRF</t>
   </si>
   <si>
@@ -86,16 +86,16 @@
     <t xml:space="preserve">2022-12-14</t>
   </si>
   <si>
+    <t xml:space="preserve">14.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">ONGOING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.12.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">XXXX1-PX-0X-001053</t>
@@ -547,11 +547,11 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -565,15 +565,15 @@
       <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="K2"/>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
       <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
         <v>25</v>
       </c>
+      <c r="M2"/>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -582,7 +582,7 @@
         <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -598,11 +598,11 @@
       <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -616,15 +616,15 @@
       <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="K3"/>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
       <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M3"/>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O3" t="s">
         <v>26</v>
@@ -633,7 +633,7 @@
         <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -649,11 +649,11 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -667,15 +667,15 @@
       <c r="J4" t="s">
         <v>39</v>
       </c>
-      <c r="K4"/>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
       <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="M4"/>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -684,7 +684,7 @@
         <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -700,11 +700,11 @@
       <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
@@ -716,15 +716,15 @@
         <v>42</v>
       </c>
       <c r="J5"/>
-      <c r="K5"/>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
       <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
         <v>26</v>
       </c>
+      <c r="M5"/>
       <c r="N5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>
@@ -733,7 +733,7 @@
         <v>27</v>
       </c>
       <c r="Q5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -749,11 +749,11 @@
       <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>43</v>
@@ -765,15 +765,15 @@
         <v>45</v>
       </c>
       <c r="J6"/>
-      <c r="K6"/>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
       <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
         <v>26</v>
       </c>
+      <c r="M6"/>
       <c r="N6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
